--- a/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_op_measure4.xlsx
+++ b/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_op_measure4.xlsx
@@ -34,40 +34,40 @@
     <t>readmitted</t>
   </si>
   <si>
-    <t>age</t>
-  </si>
-  <si>
     <t>gender</t>
   </si>
   <si>
     <t>admission_source_id</t>
   </si>
   <si>
+    <t>insulin</t>
+  </si>
+  <si>
     <t>admission_type_id</t>
+  </si>
+  <si>
+    <t>age</t>
   </si>
   <si>
     <t>diabetesmed</t>
   </si>
   <si>
-    <t>insulin</t>
+    <t>max_glu_serum</t>
   </si>
   <si>
     <t>race</t>
   </si>
   <si>
-    <t>max_glu_serum</t>
+    <t>discharge_disposition_id</t>
+  </si>
+  <si>
+    <t>a1cresult</t>
   </si>
   <si>
     <t>diag_1</t>
   </si>
   <si>
     <t>change</t>
-  </si>
-  <si>
-    <t>a1cresult</t>
-  </si>
-  <si>
-    <t>discharge_disposition_id</t>
   </si>
   <si>
     <t>number_emergency</t>
@@ -498,7 +498,7 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <v>1.305445679015542</v>
+        <v>1.304515725475562</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -515,7 +515,7 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>1.296906706060324</v>
+        <v>1.296182747022898</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -549,7 +549,7 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1.24207806729022</v>
+        <v>1.241372335441339</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -566,7 +566,7 @@
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1.195228609334394</v>
+        <v>1.228590233667902</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -577,13 +577,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>1.186303897729063</v>
+        <v>1.215515313551202</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -594,13 +594,13 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8">
-        <v>1.183938090319507</v>
+        <v>1.183809148457604</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -617,7 +617,7 @@
         <v>26</v>
       </c>
       <c r="E9">
-        <v>1.171118937595257</v>
+        <v>1.172135407912515</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -634,7 +634,7 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1.165664315081361</v>
+        <v>1.16531890742213</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1.164711080647043</v>
+        <v>1.164514104909651</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -668,7 +668,7 @@
         <v>28</v>
       </c>
       <c r="E12">
-        <v>1.163288143073278</v>
+        <v>1.162378255001246</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -685,7 +685,7 @@
         <v>26</v>
       </c>
       <c r="E13">
-        <v>1.161836658288112</v>
+        <v>1.159495623430793</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -696,13 +696,13 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
         <v>27</v>
       </c>
       <c r="E14">
-        <v>1.154700538379251</v>
+        <v>1.155977156279789</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -730,7 +730,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>27</v>
@@ -747,13 +747,13 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17">
-        <v>1.133207340901555</v>
+        <v>1.154700538379251</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -764,13 +764,13 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18">
-        <v>1.132174095189508</v>
+        <v>1.132728344212452</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -787,7 +787,7 @@
         <v>27</v>
       </c>
       <c r="E19">
-        <v>1.113780197846022</v>
+        <v>1.12050011366883</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -804,7 +804,7 @@
         <v>28</v>
       </c>
       <c r="E20">
-        <v>1.098518514158147</v>
+        <v>1.098176697402273</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -821,7 +821,7 @@
         <v>28</v>
       </c>
       <c r="E21">
-        <v>0.9818751331828754</v>
+        <v>0.987668633183821</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -832,13 +832,13 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
       </c>
       <c r="E22">
-        <v>0.9787231916253679</v>
+        <v>0.9810029053830024</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -849,13 +849,13 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
         <v>28</v>
       </c>
       <c r="E23">
-        <v>0.9783361610903866</v>
+        <v>0.9793272474579034</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -872,7 +872,7 @@
         <v>28</v>
       </c>
       <c r="E24">
-        <v>0.9728236651243155</v>
+        <v>0.9784844522546253</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -883,13 +883,13 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
         <v>29</v>
       </c>
       <c r="E25">
-        <v>0.9663974852009977</v>
+        <v>0.9729148619351758</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -906,7 +906,7 @@
         <v>29</v>
       </c>
       <c r="E26">
-        <v>0.9663704378313039</v>
+        <v>0.9695523811794241</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -917,13 +917,13 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
       </c>
       <c r="E27">
-        <v>0.9657875486281553</v>
+        <v>0.9680790497192382</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -940,7 +940,7 @@
         <v>29</v>
       </c>
       <c r="E28">
-        <v>0.9653754299819474</v>
+        <v>0.9667082661691997</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -957,7 +957,7 @@
         <v>29</v>
       </c>
       <c r="E29">
-        <v>0.9653585797633772</v>
+        <v>0.9666104221172832</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -968,13 +968,13 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D30" t="s">
         <v>29</v>
       </c>
       <c r="E30">
-        <v>0.9649158588839123</v>
+        <v>0.9663216524712727</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -985,13 +985,13 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D31" t="s">
         <v>29</v>
       </c>
       <c r="E31">
-        <v>0.9635031495963173</v>
+        <v>0.9654941727355584</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1002,13 +1002,13 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D32" t="s">
         <v>29</v>
       </c>
       <c r="E32">
-        <v>0.962673646341735</v>
+        <v>0.9654706988129735</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1025,7 +1025,7 @@
         <v>28</v>
       </c>
       <c r="E33">
-        <v>0.9326064454669857</v>
+        <v>0.9367341414685485</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1042,7 +1042,7 @@
         <v>27</v>
       </c>
       <c r="E34">
-        <v>0.7351924460151958</v>
+        <v>0.733948997178691</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1059,7 +1059,7 @@
         <v>27</v>
       </c>
       <c r="E35">
-        <v>0.733948997178691</v>
+        <v>0.7148116611777616</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1076,7 +1076,7 @@
         <v>27</v>
       </c>
       <c r="E36">
-        <v>0.7148116611777616</v>
+        <v>0.708637553804862</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1110,7 +1110,7 @@
         <v>27</v>
       </c>
       <c r="E38">
-        <v>0.6752424608630451</v>
+        <v>0.6807230261889474</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1127,7 +1127,7 @@
         <v>27</v>
       </c>
       <c r="E39">
-        <v>0.6037914697216047</v>
+        <v>0.6752424608630451</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1135,16 +1135,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E40">
-        <v>0.5961215921766979</v>
+        <v>0.6043218418768054</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1161,7 +1161,7 @@
         <v>27</v>
       </c>
       <c r="E41">
-        <v>0.5869022612420183</v>
+        <v>0.5814691205097121</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1169,16 +1169,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C42" t="s">
         <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E42">
-        <v>0.5814691205097121</v>
+        <v>0.5767832587275045</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1186,16 +1186,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D43" t="s">
         <v>27</v>
       </c>
       <c r="E43">
-        <v>0.5475787794327308</v>
+        <v>0.5437820562791519</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1203,7 +1203,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s">
         <v>20</v>
@@ -1212,7 +1212,7 @@
         <v>27</v>
       </c>
       <c r="E44">
-        <v>0.5437149461664322</v>
+        <v>0.5326556845116985</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1220,16 +1220,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E45">
-        <v>0.523570314404736</v>
+        <v>0.5313054788242516</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1237,16 +1237,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
         <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E46">
-        <v>0.5235665191443089</v>
+        <v>0.5246847793171238</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1254,16 +1254,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D47" t="s">
         <v>27</v>
       </c>
       <c r="E47">
-        <v>0.4771187236136979</v>
+        <v>0.5180502566122985</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1271,7 +1271,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
         <v>20</v>
@@ -1280,7 +1280,7 @@
         <v>27</v>
       </c>
       <c r="E48">
-        <v>0.4737763824101348</v>
+        <v>0.4922344087534463</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1288,16 +1288,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D49" t="s">
         <v>27</v>
       </c>
       <c r="E49">
-        <v>0.4712414332508487</v>
+        <v>0.4907333380152076</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1305,16 +1305,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E50">
-        <v>0.4700462587497592</v>
+        <v>0.4771187236136979</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1322,7 +1322,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
         <v>18</v>
@@ -1331,7 +1331,7 @@
         <v>27</v>
       </c>
       <c r="E51">
-        <v>0.4610112019472001</v>
+        <v>0.4712414332508487</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1339,16 +1339,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D52" t="s">
         <v>27</v>
       </c>
       <c r="E52">
-        <v>0.4552679993083029</v>
+        <v>0.4644203640128239</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1356,16 +1356,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D53" t="s">
         <v>27</v>
       </c>
       <c r="E53">
-        <v>0.4472135954999579</v>
+        <v>0.4610112019472001</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1373,16 +1373,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D54" t="s">
         <v>27</v>
       </c>
       <c r="E54">
-        <v>0.4432445109256249</v>
+        <v>0.4603974499992501</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1390,16 +1390,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C55" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D55" t="s">
         <v>27</v>
       </c>
       <c r="E55">
-        <v>0.4427920672446772</v>
+        <v>0.4485096172010393</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1407,16 +1407,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E56">
-        <v>0.4344254713942064</v>
+        <v>0.4471528955500947</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1424,16 +1424,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D57" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E57">
-        <v>0.4199699104644782</v>
+        <v>0.4251454611090237</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1441,16 +1441,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E58">
-        <v>0.4174446788022647</v>
+        <v>0.4109682920664814</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1461,13 +1461,13 @@
         <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D59" t="s">
         <v>27</v>
       </c>
       <c r="E59">
-        <v>0.4146459061765791</v>
+        <v>0.408248290463863</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1475,16 +1475,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E60">
-        <v>0.4025548832937723</v>
+        <v>0.401663289999324</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1492,7 +1492,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>19</v>
@@ -1501,7 +1501,7 @@
         <v>27</v>
       </c>
       <c r="E61">
-        <v>0.3917247450213849</v>
+        <v>0.3999999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1509,16 +1509,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E62">
-        <v>0.3900999179717592</v>
+        <v>0.3971123192017977</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1526,16 +1526,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C63" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D63" t="s">
         <v>26</v>
       </c>
       <c r="E63">
-        <v>0.3816641225687069</v>
+        <v>0.3865931704704431</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1543,7 +1543,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C64" t="s">
         <v>19</v>
@@ -1552,7 +1552,7 @@
         <v>28</v>
       </c>
       <c r="E64">
-        <v>0.3797720556235456</v>
+        <v>0.3821999394492591</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1560,16 +1560,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E65">
-        <v>0.3768192257318799</v>
+        <v>0.3718383674344434</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1577,16 +1577,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C66" t="s">
         <v>19</v>
       </c>
       <c r="D66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E66">
-        <v>0.3759047057780561</v>
+        <v>0.3699337416204407</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1594,16 +1594,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D67" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E67">
-        <v>0.3640073242844019</v>
+        <v>0.3625858952972817</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1611,16 +1611,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D68" t="s">
         <v>27</v>
       </c>
       <c r="E68">
-        <v>0.3595255629952974</v>
+        <v>0.3609174544822314</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1628,16 +1628,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
         <v>19</v>
       </c>
       <c r="D69" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E69">
-        <v>0.3559723137752727</v>
+        <v>0.3580516404722301</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1645,16 +1645,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D70" t="s">
         <v>27</v>
       </c>
       <c r="E70">
-        <v>0.3555055667528944</v>
+        <v>0.3379631847096873</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1662,16 +1662,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E71">
-        <v>0.3544587784792833</v>
+        <v>0.3334208043776034</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1679,16 +1679,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D72" t="s">
         <v>26</v>
       </c>
       <c r="E72">
-        <v>0.3387234149496497</v>
+        <v>0.3267546139477621</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1696,16 +1696,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C73" t="s">
         <v>20</v>
       </c>
       <c r="D73" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E73">
-        <v>0.335350856704887</v>
+        <v>0.322415684842904</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1713,16 +1713,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D74" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E74">
-        <v>0.3265206906579614</v>
+        <v>0.3199338632057598</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1730,16 +1730,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E75">
-        <v>0.3197036637799737</v>
+        <v>0.316698460049643</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1747,16 +1747,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
         <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E76">
-        <v>0.3162644577575215</v>
+        <v>0.3154376246182542</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1764,16 +1764,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D77" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E77">
-        <v>0.3146077483738494</v>
+        <v>0.3149823937544686</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1781,16 +1781,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E78">
-        <v>0.3130931126950927</v>
+        <v>0.3130736075739146</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1798,16 +1798,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D79" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E79">
-        <v>0.3107751543820654</v>
+        <v>0.3092110302791035</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1815,7 +1815,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
         <v>19</v>
@@ -1824,7 +1824,7 @@
         <v>27</v>
       </c>
       <c r="E80">
-        <v>0.3107277331329326</v>
+        <v>0.3084398403824238</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1835,13 +1835,13 @@
         <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D81" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E81">
-        <v>0.3065962114220912</v>
+        <v>0.3033446627840238</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1849,16 +1849,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C82" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E82">
-        <v>0.3042863452794195</v>
+        <v>0.2956561979945413</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1866,16 +1866,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D83" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E83">
-        <v>0.2978808744799081</v>
+        <v>0.2940217376783287</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1883,16 +1883,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D84" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E84">
-        <v>0.2962315547683965</v>
+        <v>0.2892181305016718</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1900,16 +1900,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D85" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E85">
-        <v>0.295163515496319</v>
+        <v>0.28332481863331</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1917,16 +1917,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C86" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D86" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E86">
-        <v>0.2940926458377202</v>
+        <v>0.2816402725962582</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1934,16 +1934,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C87" t="s">
         <v>20</v>
       </c>
       <c r="D87" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E87">
-        <v>0.2928067317692578</v>
+        <v>0.2809549758375771</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1951,16 +1951,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D88" t="s">
         <v>27</v>
       </c>
       <c r="E88">
-        <v>0.2927748349248602</v>
+        <v>0.2809549758375771</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1968,16 +1968,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C89" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D89" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E89">
-        <v>0.2875978141927914</v>
+        <v>0.2790658509137976</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1985,16 +1985,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D90" t="s">
         <v>28</v>
       </c>
       <c r="E90">
-        <v>0.2867521722353819</v>
+        <v>0.2788244299339784</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2002,16 +2002,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C91" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D91" t="s">
         <v>26</v>
       </c>
       <c r="E91">
-        <v>0.2853507999868807</v>
+        <v>0.2784815512525549</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2019,16 +2019,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D92" t="s">
         <v>28</v>
       </c>
       <c r="E92">
-        <v>0.284239055958768</v>
+        <v>0.2771684078397204</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2036,7 +2036,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C93" t="s">
         <v>20</v>
@@ -2045,7 +2045,7 @@
         <v>26</v>
       </c>
       <c r="E93">
-        <v>0.2808516319174872</v>
+        <v>0.2721806205395905</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2053,16 +2053,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
         <v>19</v>
       </c>
       <c r="D94" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E94">
-        <v>0.2774989934785596</v>
+        <v>0.2706301709019939</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2070,16 +2070,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D95" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E95">
-        <v>0.275645722127516</v>
+        <v>0.2673206472301403</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2090,13 +2090,13 @@
         <v>14</v>
       </c>
       <c r="C96" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D96" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E96">
-        <v>0.2750831340629346</v>
+        <v>0.2644794486138202</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2104,16 +2104,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C97" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D97" t="s">
         <v>28</v>
       </c>
       <c r="E97">
-        <v>0.2731075206713435</v>
+        <v>0.2642937643212979</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2124,13 +2124,13 @@
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D98" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E98">
-        <v>0.2633624044877343</v>
+        <v>0.263057712665551</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2138,16 +2138,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C99" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D99" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E99">
-        <v>0.2604759379426274</v>
+        <v>0.2624871835558842</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2155,16 +2155,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D100" t="s">
         <v>29</v>
       </c>
       <c r="E100">
-        <v>0.2580348387315727</v>
+        <v>0.2570306389905152</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2172,7 +2172,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
         <v>18</v>
@@ -2181,7 +2181,7 @@
         <v>29</v>
       </c>
       <c r="E101">
-        <v>0.2572144746956964</v>
+        <v>0.2559849467605558</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2189,16 +2189,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D102" t="s">
         <v>29</v>
       </c>
       <c r="E102">
-        <v>0.2568998302192574</v>
+        <v>0.2557949229708888</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2206,16 +2206,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D103" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E103">
-        <v>0.256135263016005</v>
+        <v>0.2551994738572312</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2223,16 +2223,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C104" t="s">
         <v>20</v>
       </c>
       <c r="D104" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E104">
-        <v>0.2554009976198576</v>
+        <v>0.2546618919166553</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2240,16 +2240,16 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
         <v>20</v>
       </c>
       <c r="D105" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E105">
-        <v>0.2544171934193675</v>
+        <v>0.2527884295171949</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2257,16 +2257,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D106" t="s">
         <v>29</v>
       </c>
       <c r="E106">
-        <v>0.2541585967066876</v>
+        <v>0.2492304812255846</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2274,16 +2274,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D107" t="s">
         <v>29</v>
       </c>
       <c r="E107">
-        <v>0.252343213135251</v>
+        <v>0.248299093748228</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2291,16 +2291,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D108" t="s">
         <v>28</v>
       </c>
       <c r="E108">
-        <v>0.2492720984839978</v>
+        <v>0.2481538285016906</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2308,16 +2308,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C109" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D109" t="s">
         <v>26</v>
       </c>
       <c r="E109">
-        <v>0.2485724672532957</v>
+        <v>0.2474476254610204</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2325,16 +2325,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D110" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E110">
-        <v>0.2430659442851905</v>
+        <v>0.2411619947389888</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2342,16 +2342,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D111" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E111">
-        <v>0.2369062333011655</v>
+        <v>0.2363871001883494</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2359,16 +2359,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D112" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E112">
-        <v>0.2331152654060318</v>
+        <v>0.2358387474533835</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2376,16 +2376,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C113" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D113" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E113">
-        <v>0.2314127669695543</v>
+        <v>0.2348219685184953</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2393,16 +2393,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C114" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D114" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E114">
-        <v>0.2311888316118858</v>
+        <v>0.2318909533225763</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2410,16 +2410,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D115" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E115">
-        <v>0.2311888316118858</v>
+        <v>0.2273519134909797</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2427,16 +2427,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D116" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E116">
-        <v>0.2305897212590147</v>
+        <v>0.2269420920965715</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2444,16 +2444,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D117" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E117">
-        <v>0.2302798492545222</v>
+        <v>0.2264010277708262</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2461,16 +2461,16 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D118" t="s">
         <v>29</v>
       </c>
       <c r="E118">
-        <v>0.2292315430061986</v>
+        <v>0.2257784445076849</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2487,7 +2487,7 @@
         <v>29</v>
       </c>
       <c r="E119">
-        <v>0.2286044602839613</v>
+        <v>0.2250425626113041</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2495,16 +2495,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D120" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E120">
-        <v>0.2276414682242104</v>
+        <v>0.2244462006897226</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2512,16 +2512,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D121" t="s">
         <v>29</v>
       </c>
       <c r="E121">
-        <v>0.2249980545589418</v>
+        <v>0.224423765940618</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2529,16 +2529,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D122" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E122">
-        <v>0.2242961430161295</v>
+        <v>0.2242639844597954</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2546,16 +2546,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D123" t="s">
         <v>29</v>
       </c>
       <c r="E123">
-        <v>0.2238041900239126</v>
+        <v>0.2239861862692856</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2563,16 +2563,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D124" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E124">
-        <v>0.2236067977499791</v>
+        <v>0.2239304373395433</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2580,16 +2580,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D125" t="s">
         <v>29</v>
       </c>
       <c r="E125">
-        <v>0.2221842146266312</v>
+        <v>0.2237714490908496</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2597,16 +2597,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C126" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D126" t="s">
         <v>29</v>
       </c>
       <c r="E126">
-        <v>0.2221797170829407</v>
+        <v>0.2237217547779719</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2614,16 +2614,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C127" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D127" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E127">
-        <v>0.2207529267593338</v>
+        <v>0.2234132362388647</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2631,16 +2631,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C128" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D128" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E128">
-        <v>0.2204227248124715</v>
+        <v>0.2233638021922389</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2648,16 +2648,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C129" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D129" t="s">
         <v>29</v>
       </c>
       <c r="E129">
-        <v>0.2194395425393678</v>
+        <v>0.2224106924959353</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2665,16 +2665,16 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D130" t="s">
         <v>28</v>
       </c>
       <c r="E130">
-        <v>0.2192166820982584</v>
+        <v>0.2216449467752757</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2685,13 +2685,13 @@
         <v>11</v>
       </c>
       <c r="C131" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D131" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E131">
-        <v>0.2186512624206456</v>
+        <v>0.2205497917089836</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2699,16 +2699,16 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C132" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D132" t="s">
         <v>29</v>
       </c>
       <c r="E132">
-        <v>0.2174912159964009</v>
+        <v>0.2205341850675534</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2716,16 +2716,16 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C133" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D133" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E133">
-        <v>0.2164666016043156</v>
+        <v>0.220207177260671</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2733,16 +2733,16 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C134" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D134" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E134">
-        <v>0.2156183669477899</v>
+        <v>0.2192838416912883</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2750,7 +2750,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
         <v>23</v>
@@ -2759,7 +2759,7 @@
         <v>28</v>
       </c>
       <c r="E135">
-        <v>0.2153309313664036</v>
+        <v>0.2187523224140334</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2767,16 +2767,16 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C136" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D136" t="s">
         <v>28</v>
       </c>
       <c r="E136">
-        <v>0.2152850125050053</v>
+        <v>0.2164359785498958</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2784,16 +2784,16 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D137" t="s">
         <v>28</v>
       </c>
       <c r="E137">
-        <v>0.2151246485941451</v>
+        <v>0.2151339799212972</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2801,16 +2801,16 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C138" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D138" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E138">
-        <v>0.2146247224755108</v>
+        <v>0.2144828165670961</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2824,10 +2824,10 @@
         <v>22</v>
       </c>
       <c r="D139" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E139">
-        <v>0.2145209090103526</v>
+        <v>0.2139549336659269</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2835,16 +2835,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C140" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D140" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E140">
-        <v>0.2143481468367995</v>
+        <v>0.2135842343730492</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2855,13 +2855,13 @@
         <v>11</v>
       </c>
       <c r="C141" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D141" t="s">
         <v>29</v>
       </c>
       <c r="E141">
-        <v>0.2136248517479204</v>
+        <v>0.2131483359890506</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2869,7 +2869,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C142" t="s">
         <v>18</v>
@@ -2878,7 +2878,7 @@
         <v>28</v>
       </c>
       <c r="E142">
-        <v>0.2124363985188513</v>
+        <v>0.2122589849793808</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2886,16 +2886,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C143" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D143" t="s">
         <v>29</v>
       </c>
       <c r="E143">
-        <v>0.2114734490016001</v>
+        <v>0.2110700789132961</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2903,16 +2903,16 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D144" t="s">
         <v>28</v>
       </c>
       <c r="E144">
-        <v>0.2114245102651069</v>
+        <v>0.2083807474247497</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2920,7 +2920,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C145" t="s">
         <v>24</v>
@@ -2929,7 +2929,7 @@
         <v>29</v>
       </c>
       <c r="E145">
-        <v>0.2106724347080965</v>
+        <v>0.2077506455961165</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2937,16 +2937,16 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C146" t="s">
         <v>20</v>
       </c>
       <c r="D146" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E146">
-        <v>0.2098244103284903</v>
+        <v>0.20768361791808</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2954,16 +2954,16 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D147" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E147">
-        <v>0.2089317149550847</v>
+        <v>0.2072673710495326</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2971,16 +2971,16 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C148" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D148" t="s">
         <v>29</v>
       </c>
       <c r="E148">
-        <v>0.2088422570788512</v>
+        <v>0.2066681577090769</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2988,16 +2988,16 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C149" t="s">
         <v>20</v>
       </c>
       <c r="D149" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E149">
-        <v>0.2081493021239123</v>
+        <v>0.2064763087042542</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3005,16 +3005,16 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C150" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D150" t="s">
         <v>28</v>
       </c>
       <c r="E150">
-        <v>0.2072244168638545</v>
+        <v>0.2062219630111685</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3022,16 +3022,16 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D151" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E151">
-        <v>0.2070406061719312</v>
+        <v>0.2047708613417432</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3039,16 +3039,16 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C152" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D152" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E152">
-        <v>0.2065940124494663</v>
+        <v>0.2039415899674857</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3056,16 +3056,16 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C153" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D153" t="s">
         <v>28</v>
       </c>
       <c r="E153">
-        <v>0.2061335821691263</v>
+        <v>0.2037135861874664</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3073,16 +3073,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C154" t="s">
         <v>24</v>
       </c>
       <c r="D154" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E154">
-        <v>0.2055115689333291</v>
+        <v>0.203535024633488</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3090,16 +3090,16 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C155" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D155" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E155">
-        <v>0.2047726040369741</v>
+        <v>0.2034313886431853</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3107,16 +3107,16 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C156" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D156" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E156">
-        <v>0.2036448538492344</v>
+        <v>0.20270999800893</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3124,16 +3124,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C157" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D157" t="s">
         <v>29</v>
       </c>
       <c r="E157">
-        <v>0.2034877566692979</v>
+        <v>0.2022118154877009</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3141,16 +3141,16 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C158" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D158" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E158">
-        <v>0.2031817668663608</v>
+        <v>0.2018606037105385</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3158,16 +3158,16 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D159" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E159">
-        <v>0.202407432032711</v>
+        <v>0.201258893491065</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3175,16 +3175,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C160" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D160" t="s">
         <v>28</v>
       </c>
       <c r="E160">
-        <v>0.1996070585274839</v>
+        <v>0.2007480155829161</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3192,16 +3192,16 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C161" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D161" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E161">
-        <v>0.198639648020018</v>
+        <v>0.2000899015436046</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3209,16 +3209,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D162" t="s">
         <v>28</v>
       </c>
       <c r="E162">
-        <v>0.1984098024730555</v>
+        <v>0.1996331150930917</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3226,16 +3226,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C163" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D163" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E163">
-        <v>0.1970851687738719</v>
+        <v>0.1985474898819607</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3243,16 +3243,16 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C164" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D164" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E164">
-        <v>0.1962685041324691</v>
+        <v>0.1982946599316641</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3260,16 +3260,16 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C165" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D165" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E165">
-        <v>0.1958069812284499</v>
+        <v>0.1982528850172049</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3277,16 +3277,16 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C166" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D166" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E166">
-        <v>0.1945177244107373</v>
+        <v>0.1979093108259272</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3294,16 +3294,16 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C167" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D167" t="s">
         <v>28</v>
       </c>
       <c r="E167">
-        <v>0.1932685986547735</v>
+        <v>0.1973622391574492</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3311,7 +3311,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
         <v>22</v>
@@ -3320,7 +3320,7 @@
         <v>27</v>
       </c>
       <c r="E168">
-        <v>0.1913327908469741</v>
+        <v>0.1961161351381841</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3328,16 +3328,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D169" t="s">
         <v>27</v>
       </c>
       <c r="E169">
-        <v>0.1895740770125832</v>
+        <v>0.1961161351381841</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3345,16 +3345,16 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D170" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E170">
-        <v>0.1895272979089519</v>
+        <v>0.1960204336293549</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3362,16 +3362,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C171" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D171" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E171">
-        <v>0.1892409582702481</v>
+        <v>0.1952042229637025</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3379,16 +3379,16 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C172" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D172" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E172">
-        <v>0.1889052599343337</v>
+        <v>0.1944866553305261</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3396,16 +3396,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C173" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D173" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E173">
-        <v>0.1878449208598922</v>
+        <v>0.1934129479715647</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3413,16 +3413,16 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C174" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D174" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E174">
-        <v>0.187671132860902</v>
+        <v>0.1921537845661043</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3430,16 +3430,16 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C175" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D175" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E175">
-        <v>0.1875658869980924</v>
+        <v>0.1921537845661043</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3447,16 +3447,16 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C176" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D176" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E176">
-        <v>0.1865148982888972</v>
+        <v>0.1901197831475795</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3464,16 +3464,16 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D177" t="s">
         <v>28</v>
       </c>
       <c r="E177">
-        <v>0.1842116634339247</v>
+        <v>0.1884491984392183</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3481,16 +3481,16 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C178" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D178" t="s">
         <v>28</v>
       </c>
       <c r="E178">
-        <v>0.1828481593340542</v>
+        <v>0.1880476126676978</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3498,16 +3498,16 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D179" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E179">
-        <v>0.1822166031947403</v>
+        <v>0.1874590387761362</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3515,16 +3515,16 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C180" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D180" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E180">
-        <v>0.1816676312902294</v>
+        <v>0.1870847733131788</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3532,16 +3532,16 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C181" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D181" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E181">
-        <v>0.1816497536376887</v>
+        <v>0.1869926638846681</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3552,13 +3552,13 @@
         <v>11</v>
       </c>
       <c r="C182" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D182" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E182">
-        <v>0.1815267062448155</v>
+        <v>0.1855474600643652</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3566,16 +3566,16 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C183" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D183" t="s">
         <v>26</v>
       </c>
       <c r="E183">
-        <v>0.180979079755973</v>
+        <v>0.1851152674398623</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3583,16 +3583,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C184" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D184" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E184">
-        <v>0.1805534604218139</v>
+        <v>0.1845093655562405</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3600,16 +3600,16 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C185" t="s">
         <v>22</v>
       </c>
       <c r="D185" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E185">
-        <v>0.179980602446713</v>
+        <v>0.1836482641201063</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3617,16 +3617,16 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D186" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E186">
-        <v>0.1788173406380607</v>
+        <v>0.1820304525061535</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3634,16 +3634,16 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C187" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D187" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E187">
-        <v>0.1783553511593047</v>
+        <v>0.1816641411712764</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3651,7 +3651,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C188" t="s">
         <v>18</v>
@@ -3660,7 +3660,7 @@
         <v>29</v>
       </c>
       <c r="E188">
-        <v>0.1775033366389597</v>
+        <v>0.1787291412794446</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3668,16 +3668,16 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C189" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D189" t="s">
         <v>28</v>
       </c>
       <c r="E189">
-        <v>0.1771677918205502</v>
+        <v>0.1784709749763412</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3685,16 +3685,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D190" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E190">
-        <v>0.1771166630098835</v>
+        <v>0.1768140964808693</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3702,16 +3702,16 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C191" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D191" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E191">
-        <v>0.1766809194664052</v>
+        <v>0.1767262286810526</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3719,7 +3719,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C192" t="s">
         <v>20</v>
@@ -3728,7 +3728,7 @@
         <v>29</v>
       </c>
       <c r="E192">
-        <v>0.1757123649584192</v>
+        <v>0.1757138400688218</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3736,16 +3736,16 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C193" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D193" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E193">
-        <v>0.1756679373661732</v>
+        <v>0.1754913784377122</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3753,16 +3753,16 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C194" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D194" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E194">
-        <v>0.1755815426417283</v>
+        <v>0.1754612322692065</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3770,16 +3770,16 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C195" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D195" t="s">
         <v>29</v>
       </c>
       <c r="E195">
-        <v>0.1736898382481822</v>
+        <v>0.1753287438090947</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3787,16 +3787,16 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C196" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D196" t="s">
         <v>29</v>
       </c>
       <c r="E196">
-        <v>0.1726399910088957</v>
+        <v>0.1741178758157721</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3804,16 +3804,16 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C197" t="s">
         <v>22</v>
       </c>
       <c r="D197" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E197">
-        <v>0.1722052689514892</v>
+        <v>0.1719224397423129</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3821,16 +3821,16 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D198" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E198">
-        <v>0.1710335869062993</v>
+        <v>0.171075629944643</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3838,16 +3838,16 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C199" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D199" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E199">
-        <v>0.1687374175420182</v>
+        <v>0.1662762689988774</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3855,16 +3855,16 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C200" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D200" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E200">
-        <v>0.1680861393342346</v>
+        <v>0.1651523451985444</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3872,16 +3872,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C201" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D201" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E201">
-        <v>0.1674869999931904</v>
+        <v>0.1650103297931134</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3889,16 +3889,16 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C202" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D202" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E202">
-        <v>0.1671893209641139</v>
+        <v>0.1647129827825238</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3906,16 +3906,16 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C203" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D203" t="s">
         <v>28</v>
       </c>
       <c r="E203">
-        <v>0.1641086999757042</v>
+        <v>0.1632511879944208</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3923,16 +3923,16 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C204" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D204" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E204">
-        <v>0.163765400044142</v>
+        <v>0.1625554268158715</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3940,16 +3940,16 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C205" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D205" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E205">
-        <v>0.1635487396912904</v>
+        <v>0.1613041106857814</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3960,13 +3960,13 @@
         <v>10</v>
       </c>
       <c r="C206" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D206" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E206">
-        <v>0.1628655854961142</v>
+        <v>0.1608255095400687</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3977,13 +3977,13 @@
         <v>15</v>
       </c>
       <c r="C207" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D207" t="s">
         <v>28</v>
       </c>
       <c r="E207">
-        <v>0.1609016238807976</v>
+        <v>0.1600491487544703</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3991,16 +3991,16 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C208" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D208" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E208">
-        <v>0.1601271099811546</v>
+        <v>0.1588304719114663</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4011,13 +4011,13 @@
         <v>14</v>
       </c>
       <c r="C209" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D209" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E209">
-        <v>0.1585703478716848</v>
+        <v>0.1559410717739397</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4025,16 +4025,16 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C210" t="s">
         <v>22</v>
       </c>
       <c r="D210" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E210">
-        <v>0.1584197508643519</v>
+        <v>0.1556450750860879</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4042,16 +4042,16 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C211" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D211" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E211">
-        <v>0.1583474986505115</v>
+        <v>0.1553425421636582</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4062,13 +4062,13 @@
         <v>11</v>
       </c>
       <c r="C212" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D212" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E212">
-        <v>0.1580653384210406</v>
+        <v>0.1525197931337486</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4076,16 +4076,16 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C213" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D213" t="s">
         <v>28</v>
       </c>
       <c r="E213">
-        <v>0.1563901353717348</v>
+        <v>0.1510902541391377</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4093,16 +4093,16 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C214" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D214" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E214">
-        <v>0.1558326109624605</v>
+        <v>0.1505598144036574</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4110,16 +4110,16 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D215" t="s">
         <v>29</v>
       </c>
       <c r="E215">
-        <v>0.1557113534634901</v>
+        <v>0.1493113003159917</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4127,16 +4127,16 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C216" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D216" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E216">
-        <v>0.1550420595705961</v>
+        <v>0.1492665901385733</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4144,16 +4144,16 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C217" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D217" t="s">
         <v>28</v>
       </c>
       <c r="E217">
-        <v>0.1549747052012175</v>
+        <v>0.1492647137741188</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4161,16 +4161,16 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C218" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D218" t="s">
         <v>28</v>
       </c>
       <c r="E218">
-        <v>0.1534612300979037</v>
+        <v>0.1491420262080668</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4178,16 +4178,16 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C219" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D219" t="s">
         <v>28</v>
       </c>
       <c r="E219">
-        <v>0.1530258857948374</v>
+        <v>0.1486484863385672</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4195,16 +4195,16 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C220" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D220" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E220">
-        <v>0.1529375741732696</v>
+        <v>0.1474946129313511</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4212,16 +4212,16 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C221" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D221" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E221">
-        <v>0.1522297652098937</v>
+        <v>0.1474128952622455</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4229,16 +4229,16 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D222" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E222">
-        <v>0.150305338046354</v>
+        <v>0.1472366987201089</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4246,16 +4246,16 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C223" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D223" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E223">
-        <v>0.1496034457133996</v>
+        <v>0.1454918790072229</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4266,13 +4266,13 @@
         <v>17</v>
       </c>
       <c r="C224" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D224" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E224">
-        <v>0.1494969905683965</v>
+        <v>0.1454477087313863</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4283,13 +4283,13 @@
         <v>14</v>
       </c>
       <c r="C225" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D225" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E225">
-        <v>0.1494770227591143</v>
+        <v>0.1449798943285369</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4297,16 +4297,16 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C226" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D226" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E226">
-        <v>0.149435367665852</v>
+        <v>0.1445800000769229</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4314,7 +4314,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C227" t="s">
         <v>25</v>
@@ -4323,7 +4323,7 @@
         <v>26</v>
       </c>
       <c r="E227">
-        <v>0.14918306357133</v>
+        <v>0.1445085017314627</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4334,13 +4334,13 @@
         <v>9</v>
       </c>
       <c r="C228" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D228" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E228">
-        <v>0.1479620488101437</v>
+        <v>0.1444610387028218</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4348,16 +4348,16 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C229" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D229" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E229">
-        <v>0.1478341598039722</v>
+        <v>0.1437003102768289</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4365,16 +4365,16 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C230" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D230" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E230">
-        <v>0.147565276352758</v>
+        <v>0.143453749023242</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4385,13 +4385,13 @@
         <v>16</v>
       </c>
       <c r="C231" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D231" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E231">
-        <v>0.1465300193320446</v>
+        <v>0.1434470832543259</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4402,13 +4402,13 @@
         <v>16</v>
       </c>
       <c r="C232" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D232" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E232">
-        <v>0.1456580856555878</v>
+        <v>0.1427083246174663</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4419,13 +4419,13 @@
         <v>9</v>
       </c>
       <c r="C233" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D233" t="s">
         <v>29</v>
       </c>
       <c r="E233">
-        <v>0.1456022335713554</v>
+        <v>0.1427069925372724</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4433,16 +4433,16 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C234" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D234" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E234">
-        <v>0.1448087135672858</v>
+        <v>0.1419752198172627</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4450,16 +4450,16 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C235" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D235" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E235">
-        <v>0.1441613539203705</v>
+        <v>0.1416464181087206</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4467,16 +4467,16 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C236" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D236" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E236">
-        <v>0.1441579390375478</v>
+        <v>0.141474887936361</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4487,13 +4487,13 @@
         <v>9</v>
       </c>
       <c r="C237" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D237" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E237">
-        <v>0.1439997678118895</v>
+        <v>0.1409577193922699</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4501,16 +4501,16 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C238" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D238" t="s">
         <v>29</v>
       </c>
       <c r="E238">
-        <v>0.1435898323900279</v>
+        <v>0.1408684318140983</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4521,13 +4521,13 @@
         <v>17</v>
       </c>
       <c r="C239" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D239" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E239">
-        <v>0.143255002633342</v>
+        <v>0.1407222719099164</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4535,16 +4535,16 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C240" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D240" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E240">
-        <v>0.1430577699653054</v>
+        <v>0.1403023450561538</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4552,16 +4552,16 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C241" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D241" t="s">
         <v>29</v>
       </c>
       <c r="E241">
-        <v>0.1428743472969999</v>
+        <v>0.1399337466451342</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4569,16 +4569,16 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C242" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D242" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E242">
-        <v>0.1428128076854939</v>
+        <v>0.1399188062860297</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4586,16 +4586,16 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C243" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D243" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E243">
-        <v>0.1426443888436328</v>
+        <v>0.1395741913836438</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4603,16 +4603,16 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C244" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D244" t="s">
         <v>29</v>
       </c>
       <c r="E244">
-        <v>0.1404049333541886</v>
+        <v>0.1392639402122428</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4620,16 +4620,16 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C245" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D245" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E245">
-        <v>0.1403001938314171</v>
+        <v>0.1391987966953558</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4637,16 +4637,16 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C246" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D246" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E246">
-        <v>0.1401332891145506</v>
+        <v>0.1381391168961786</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4654,16 +4654,16 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C247" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D247" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E247">
-        <v>0.1390507440201624</v>
+        <v>0.1381316256011914</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4671,16 +4671,16 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D248" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E248">
-        <v>0.1377121791905616</v>
+        <v>0.1378851503449715</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4688,16 +4688,16 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C249" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D249" t="s">
         <v>29</v>
       </c>
       <c r="E249">
-        <v>0.1376871235105161</v>
+        <v>0.1377475865964209</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4705,16 +4705,16 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C250" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D250" t="s">
         <v>29</v>
       </c>
       <c r="E250">
-        <v>0.1376742660645291</v>
+        <v>0.137699915129396</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4722,7 +4722,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C251" t="s">
         <v>20</v>
@@ -4731,7 +4731,7 @@
         <v>29</v>
       </c>
       <c r="E251">
-        <v>0.1376466325355299</v>
+        <v>0.1375847308010317</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4739,16 +4739,16 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C252" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D252" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E252">
-        <v>0.1367362169663112</v>
+        <v>0.1370295123510122</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4756,16 +4756,16 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C253" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D253" t="s">
         <v>29</v>
       </c>
       <c r="E253">
-        <v>0.1360116535118769</v>
+        <v>0.1363710590533335</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4776,13 +4776,13 @@
         <v>15</v>
       </c>
       <c r="C254" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D254" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E254">
-        <v>0.1352078172780967</v>
+        <v>0.1363354043389679</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4793,13 +4793,13 @@
         <v>14</v>
       </c>
       <c r="C255" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D255" t="s">
         <v>29</v>
       </c>
       <c r="E255">
-        <v>0.1351208579177265</v>
+        <v>0.1360749198522018</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4807,16 +4807,16 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C256" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D256" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E256">
-        <v>0.1337830857841322</v>
+        <v>0.1358914130328581</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4824,16 +4824,16 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C257" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D257" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E257">
-        <v>0.1331987135293742</v>
+        <v>0.1357822431838434</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4841,7 +4841,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C258" t="s">
         <v>23</v>
@@ -4850,7 +4850,7 @@
         <v>29</v>
       </c>
       <c r="E258">
-        <v>0.1327629172141518</v>
+        <v>0.1357017816927713</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4858,16 +4858,16 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C259" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D259" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E259">
-        <v>0.1314736129939112</v>
+        <v>0.1356028144371853</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4875,16 +4875,16 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C260" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D260" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E260">
-        <v>0.1300628258860164</v>
+        <v>0.1354320887163359</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4892,16 +4892,16 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C261" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D261" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E261">
-        <v>0.130003582920038</v>
+        <v>0.1353994276640579</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4909,16 +4909,16 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C262" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D262" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E262">
-        <v>0.1276005409013976</v>
+        <v>0.1353323098235299</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4926,16 +4926,16 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C263" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D263" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E263">
-        <v>0.127485596050764</v>
+        <v>0.134989731549595</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4943,16 +4943,16 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C264" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D264" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E264">
-        <v>0.1268227968088955</v>
+        <v>0.1349827690293622</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4960,16 +4960,16 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C265" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D265" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E265">
-        <v>0.1264916677412298</v>
+        <v>0.1349624865875871</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4977,16 +4977,16 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C266" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D266" t="s">
         <v>28</v>
       </c>
       <c r="E266">
-        <v>0.1262868782849738</v>
+        <v>0.134701392871378</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4994,16 +4994,16 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C267" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D267" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E267">
-        <v>0.1260957666141423</v>
+        <v>0.1336270252139284</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5011,16 +5011,16 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C268" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D268" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E268">
-        <v>0.1257187535123112</v>
+        <v>0.1319133070543848</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5028,16 +5028,16 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C269" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D269" t="s">
         <v>29</v>
       </c>
       <c r="E269">
-        <v>0.1247054360407944</v>
+        <v>0.1314888842713045</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5045,16 +5045,16 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C270" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D270" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E270">
-        <v>0.1240860890965429</v>
+        <v>0.1293332902602783</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5062,16 +5062,16 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C271" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D271" t="s">
         <v>29</v>
       </c>
       <c r="E271">
-        <v>0.1238336451837018</v>
+        <v>0.1288912295547973</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5079,16 +5079,16 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C272" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D272" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E272">
-        <v>0.1229696227572673</v>
+        <v>0.127886339726599</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5096,16 +5096,16 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C273" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D273" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E273">
-        <v>0.1228791266113122</v>
+        <v>0.1277991815808819</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5113,16 +5113,16 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C274" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D274" t="s">
         <v>29</v>
       </c>
       <c r="E274">
-        <v>0.1228065764580327</v>
+        <v>0.127296627664065</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5130,16 +5130,16 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C275" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D275" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E275">
-        <v>0.1221927075808938</v>
+        <v>0.127015745293254</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5147,16 +5147,16 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C276" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D276" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E276">
-        <v>0.12184436934735</v>
+        <v>0.1266533904096746</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5164,16 +5164,16 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C277" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D277" t="s">
         <v>29</v>
       </c>
       <c r="E277">
-        <v>0.1205993450339662</v>
+        <v>0.1232715607872149</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5181,16 +5181,16 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C278" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D278" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E278">
-        <v>0.1204602552989544</v>
+        <v>0.1231428965379447</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5198,16 +5198,16 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C279" t="s">
         <v>22</v>
       </c>
       <c r="D279" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E279">
-        <v>0.120113477216467</v>
+        <v>0.1228718780466623</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5215,16 +5215,16 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C280" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D280" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E280">
-        <v>0.1198801595755896</v>
+        <v>0.1226888804959016</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5232,16 +5232,16 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C281" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D281" t="s">
         <v>29</v>
       </c>
       <c r="E281">
-        <v>0.1195350952995517</v>
+        <v>0.1224527413508838</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5249,16 +5249,16 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C282" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D282" t="s">
         <v>29</v>
       </c>
       <c r="E282">
-        <v>0.1188892714318425</v>
+        <v>0.121130025531401</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5266,16 +5266,16 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C283" t="s">
         <v>25</v>
       </c>
       <c r="D283" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E283">
-        <v>0.117342046357346</v>
+        <v>0.1207655328691774</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5283,16 +5283,16 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C284" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D284" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E284">
-        <v>0.1172196997746848</v>
+        <v>0.1207541373853564</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5303,13 +5303,13 @@
         <v>14</v>
       </c>
       <c r="C285" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D285" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E285">
-        <v>0.1169987540899064</v>
+        <v>0.1202311902308045</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5317,7 +5317,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C286" t="s">
         <v>25</v>
@@ -5326,7 +5326,7 @@
         <v>29</v>
       </c>
       <c r="E286">
-        <v>0.1162383980732568</v>
+        <v>0.1199156017052551</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5334,7 +5334,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C287" t="s">
         <v>23</v>
@@ -5343,7 +5343,7 @@
         <v>28</v>
       </c>
       <c r="E287">
-        <v>0.1149507017436884</v>
+        <v>0.1181804627414005</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5351,16 +5351,16 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C288" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D288" t="s">
         <v>28</v>
       </c>
       <c r="E288">
-        <v>0.1148801881164759</v>
+        <v>0.1179372322330116</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5368,16 +5368,16 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C289" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D289" t="s">
         <v>28</v>
       </c>
       <c r="E289">
-        <v>0.1123741694457891</v>
+        <v>0.1176227238633914</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5385,16 +5385,16 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C290" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D290" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E290">
-        <v>0.1123207704438423</v>
+        <v>0.1174480496383624</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5402,16 +5402,16 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C291" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D291" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E291">
-        <v>0.1121620240348607</v>
+        <v>0.117052408467231</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5419,16 +5419,16 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C292" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D292" t="s">
         <v>26</v>
       </c>
       <c r="E292">
-        <v>0.1119544532078493</v>
+        <v>0.1155432917787915</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5436,16 +5436,16 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C293" t="s">
         <v>22</v>
       </c>
       <c r="D293" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E293">
-        <v>0.1119503046488969</v>
+        <v>0.115537686501257</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5453,16 +5453,16 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C294" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D294" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E294">
-        <v>0.1118220737653037</v>
+        <v>0.1154940314086869</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5470,16 +5470,16 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C295" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D295" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E295">
-        <v>0.1112250396695935</v>
+        <v>0.1150623214389585</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5490,13 +5490,13 @@
         <v>16</v>
       </c>
       <c r="C296" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D296" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E296">
-        <v>0.1111363727989471</v>
+        <v>0.114052611292685</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5504,7 +5504,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C297" t="s">
         <v>23</v>
@@ -5513,7 +5513,7 @@
         <v>28</v>
       </c>
       <c r="E297">
-        <v>0.1106854315312842</v>
+        <v>0.1138249557837538</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5521,16 +5521,16 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C298" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D298" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E298">
-        <v>0.1090203015235724</v>
+        <v>0.112823232798802</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5538,16 +5538,16 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C299" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D299" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E299">
-        <v>0.1088400160086634</v>
+        <v>0.1126541032717723</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5558,13 +5558,13 @@
         <v>16</v>
       </c>
       <c r="C300" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D300" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E300">
-        <v>0.1070719599465418</v>
+        <v>0.1099180669173034</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5572,16 +5572,16 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C301" t="s">
         <v>24</v>
       </c>
       <c r="D301" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E301">
-        <v>0.1069481579866246</v>
+        <v>0.1096189875080008</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5589,16 +5589,16 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C302" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D302" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E302">
-        <v>0.1065674083175439</v>
+        <v>0.1096098493508283</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -5609,13 +5609,13 @@
         <v>12</v>
       </c>
       <c r="C303" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D303" t="s">
         <v>26</v>
       </c>
       <c r="E303">
-        <v>0.1059436991352381</v>
+        <v>0.1095248996029682</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5623,16 +5623,16 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C304" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D304" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E304">
-        <v>0.1054487534484435</v>
+        <v>0.1087945234213186</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5640,16 +5640,16 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C305" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D305" t="s">
         <v>28</v>
       </c>
       <c r="E305">
-        <v>0.1053334028114043</v>
+        <v>0.1085181745440287</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5657,16 +5657,16 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C306" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D306" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E306">
-        <v>0.1052829409063801</v>
+        <v>0.1069553202546842</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5674,16 +5674,16 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C307" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D307" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E307">
-        <v>0.1052222067763898</v>
+        <v>0.1049952813505965</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5691,16 +5691,16 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C308" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D308" t="s">
         <v>26</v>
       </c>
       <c r="E308">
-        <v>0.1044971057583293</v>
+        <v>0.1047309975745312</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5708,16 +5708,16 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C309" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D309" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E309">
-        <v>0.1039470632970805</v>
+        <v>0.1039850581314638</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5725,16 +5725,16 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C310" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D310" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E310">
-        <v>0.1037544925564342</v>
+        <v>0.1037100918246208</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5742,16 +5742,16 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C311" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D311" t="s">
         <v>26</v>
       </c>
       <c r="E311">
-        <v>0.103710146827286</v>
+        <v>0.1023632305797372</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5759,16 +5759,16 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C312" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D312" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E312">
-        <v>0.1032465898508767</v>
+        <v>0.1022398658228767</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5776,16 +5776,16 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C313" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D313" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E313">
-        <v>0.1028326772417603</v>
+        <v>0.1010126453841181</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5793,16 +5793,16 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C314" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D314" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E314">
-        <v>0.1027543452883806</v>
+        <v>0.1010124555528595</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5813,13 +5813,13 @@
         <v>17</v>
       </c>
       <c r="C315" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D315" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E315">
-        <v>0.1016711041903136</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5827,16 +5827,16 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C316" t="s">
         <v>22</v>
       </c>
       <c r="D316" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E316">
-        <v>0.1011982926638298</v>
+        <v>0.09960768159557401</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5844,16 +5844,16 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C317" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D317" t="s">
         <v>26</v>
       </c>
       <c r="E317">
-        <v>0.1009819481467009</v>
+        <v>0.09906531136826374</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5861,16 +5861,16 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C318" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D318" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E318">
-        <v>0.1000657650602669</v>
+        <v>0.09888529169424089</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -5878,16 +5878,16 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C319" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D319" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E319">
-        <v>0.09975697066227224</v>
+        <v>0.09850331572182032</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5895,16 +5895,16 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C320" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D320" t="s">
         <v>27</v>
       </c>
       <c r="E320">
-        <v>0.09824130588634035</v>
+        <v>0.09786388016965356</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5912,16 +5912,16 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C321" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D321" t="s">
         <v>26</v>
       </c>
       <c r="E321">
-        <v>0.09790200452137156</v>
+        <v>0.09760772273558131</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5929,16 +5929,16 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C322" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D322" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E322">
-        <v>0.09773401974874887</v>
+        <v>0.09634655690650637</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5946,16 +5946,16 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C323" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D323" t="s">
         <v>26</v>
       </c>
       <c r="E323">
-        <v>0.09745368167505325</v>
+        <v>0.09577078922016179</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5963,16 +5963,16 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C324" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D324" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E324">
-        <v>0.09735242820743248</v>
+        <v>0.09542611919379883</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5980,16 +5980,16 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C325" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D325" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E325">
-        <v>0.09716424417338863</v>
+        <v>0.09237526623167736</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5997,16 +5997,16 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C326" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D326" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E326">
-        <v>0.09708385070562171</v>
+        <v>0.09190463858373772</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -6017,13 +6017,13 @@
         <v>12</v>
       </c>
       <c r="C327" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D327" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E327">
-        <v>0.0964547240874033</v>
+        <v>0.09090959008107881</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -6031,16 +6031,16 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C328" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D328" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E328">
-        <v>0.09623824949261395</v>
+        <v>0.09023896617927091</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -6048,16 +6048,16 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C329" t="s">
         <v>21</v>
       </c>
       <c r="D329" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E329">
-        <v>0.09601160628104007</v>
+        <v>0.09012884794834204</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -6065,16 +6065,16 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C330" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D330" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E330">
-        <v>0.0958249759098507</v>
+        <v>0.08809388259564963</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6082,16 +6082,16 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C331" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D331" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E331">
-        <v>0.09426439339991313</v>
+        <v>0.08764048539485078</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6099,16 +6099,16 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C332" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D332" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E332">
-        <v>0.0928512494934345</v>
+        <v>0.08743880930691135</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6116,16 +6116,16 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C333" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D333" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E333">
-        <v>0.09270987136782188</v>
+        <v>0.08485148717270537</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6136,13 +6136,13 @@
         <v>17</v>
       </c>
       <c r="C334" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D334" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E334">
-        <v>0.09159017945781132</v>
+        <v>0.08273352484942172</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6150,16 +6150,16 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C335" t="s">
         <v>25</v>
       </c>
       <c r="D335" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E335">
-        <v>0.08867823115364729</v>
+        <v>0.08239072457184746</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6167,16 +6167,16 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C336" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D336" t="s">
         <v>28</v>
       </c>
       <c r="E336">
-        <v>0.08617715559693352</v>
+        <v>0.08210562879547936</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6187,13 +6187,13 @@
         <v>12</v>
       </c>
       <c r="C337" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D337" t="s">
         <v>28</v>
       </c>
       <c r="E337">
-        <v>0.08583750419802086</v>
+        <v>0.08049947849762348</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6201,16 +6201,16 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C338" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D338" t="s">
         <v>26</v>
       </c>
       <c r="E338">
-        <v>0.0852327425059399</v>
+        <v>0.07898329925218012</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6218,16 +6218,16 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C339" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D339" t="s">
         <v>26</v>
       </c>
       <c r="E339">
-        <v>0.0818583637618361</v>
+        <v>0.07736978773266032</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6235,16 +6235,16 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C340" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D340" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E340">
-        <v>0.08077400836239521</v>
+        <v>0.07649029447433284</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6252,16 +6252,16 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C341" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D341" t="s">
         <v>26</v>
       </c>
       <c r="E341">
-        <v>0.07983917071308197</v>
+        <v>0.07568319821562244</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6269,16 +6269,16 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C342" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D342" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E342">
-        <v>0.07961087465179323</v>
+        <v>0.07545359813646467</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6286,16 +6286,16 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C343" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D343" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E343">
-        <v>0.07951740595519717</v>
+        <v>0.07515372237663362</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6303,16 +6303,16 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C344" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D344" t="s">
         <v>29</v>
       </c>
       <c r="E344">
-        <v>0.07865431122389036</v>
+        <v>0.07407050906340758</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6320,16 +6320,16 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C345" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D345" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E345">
-        <v>0.07753068256759421</v>
+        <v>0.07397549548257169</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6337,16 +6337,16 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C346" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D346" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E346">
-        <v>0.07683174275576234</v>
+        <v>0.07389948509785443</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6354,16 +6354,16 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C347" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D347" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E347">
-        <v>0.07670821386158556</v>
+        <v>0.07318716920346816</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6371,16 +6371,16 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C348" t="s">
         <v>21</v>
       </c>
       <c r="D348" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E348">
-        <v>0.07599079187255059</v>
+        <v>0.07310043707091399</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6388,16 +6388,16 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C349" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D349" t="s">
         <v>29</v>
       </c>
       <c r="E349">
-        <v>0.07364622499722108</v>
+        <v>0.07234442015115859</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6405,16 +6405,16 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C350" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D350" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E350">
-        <v>0.07332373558249249</v>
+        <v>0.07226797355500844</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6422,16 +6422,16 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C351" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D351" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E351">
-        <v>0.07271455477557451</v>
+        <v>0.07072022868010712</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6439,16 +6439,16 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C352" t="s">
         <v>23</v>
       </c>
       <c r="D352" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E352">
-        <v>0.07127758925585682</v>
+        <v>0.06908725227660269</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6456,16 +6456,16 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C353" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D353" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E353">
-        <v>0.07090148259209007</v>
+        <v>0.06885216399935717</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6473,16 +6473,16 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C354" t="s">
         <v>23</v>
       </c>
       <c r="D354" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E354">
-        <v>0.07083833888309581</v>
+        <v>0.06623594934421589</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6490,16 +6490,16 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C355" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D355" t="s">
         <v>26</v>
       </c>
       <c r="E355">
-        <v>0.06886295991649465</v>
+        <v>0.06604151857185363</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6507,16 +6507,16 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C356" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D356" t="s">
         <v>26</v>
       </c>
       <c r="E356">
-        <v>0.06862042226081018</v>
+        <v>0.06495053534165476</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -6524,16 +6524,16 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C357" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D357" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E357">
-        <v>0.06768646289152054</v>
+        <v>0.06372410787508234</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -6541,16 +6541,16 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C358" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D358" t="s">
         <v>29</v>
       </c>
       <c r="E358">
-        <v>0.06731576667455395</v>
+        <v>0.06312533554406126</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -6558,16 +6558,16 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C359" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D359" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E359">
-        <v>0.06726671836540576</v>
+        <v>0.06272425245581187</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -6575,16 +6575,16 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C360" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D360" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E360">
-        <v>0.06713627946869605</v>
+        <v>0.06246499195790523</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6592,16 +6592,16 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C361" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D361" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E361">
-        <v>0.06633198303616326</v>
+        <v>0.06236747400460965</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6609,16 +6609,16 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C362" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D362" t="s">
         <v>26</v>
       </c>
       <c r="E362">
-        <v>0.06554044150692667</v>
+        <v>0.06221409070103966</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6626,16 +6626,16 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C363" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D363" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E363">
-        <v>0.06553506314601201</v>
+        <v>0.06168642819344199</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6643,16 +6643,16 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C364" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D364" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E364">
-        <v>0.06419858588219186</v>
+        <v>0.06095712924467977</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6660,16 +6660,16 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C365" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D365" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E365">
-        <v>0.06405702600462922</v>
+        <v>0.06071367725300339</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6677,16 +6677,16 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C366" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D366" t="s">
         <v>26</v>
       </c>
       <c r="E366">
-        <v>0.06390977708177842</v>
+        <v>0.06008491488063012</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6697,13 +6697,13 @@
         <v>9</v>
       </c>
       <c r="C367" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D367" t="s">
         <v>26</v>
       </c>
       <c r="E367">
-        <v>0.06250921114320351</v>
+        <v>0.05868399043562728</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6711,16 +6711,16 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C368" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D368" t="s">
         <v>26</v>
       </c>
       <c r="E368">
-        <v>0.06213962368373328</v>
+        <v>0.04393532083385498</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -6728,16 +6728,16 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C369" t="s">
         <v>23</v>
       </c>
       <c r="D369" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E369">
-        <v>0.06098667509051144</v>
+        <v>0.04168804320253959</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6745,16 +6745,16 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C370" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D370" t="s">
         <v>26</v>
       </c>
       <c r="E370">
-        <v>0.05423530727555771</v>
+        <v>0.03524838889319053</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6762,16 +6762,16 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C371" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D371" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E371">
-        <v>0.05272268990672682</v>
+        <v>0.03422881251119918</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6779,16 +6779,16 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C372" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D372" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E372">
-        <v>0.04797385306401102</v>
+        <v>0.03391644185645565</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6796,16 +6796,16 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C373" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D373" t="s">
         <v>26</v>
       </c>
       <c r="E373">
-        <v>0.04308709375957008</v>
+        <v>0.02817311829180051</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -6813,16 +6813,16 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C374" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D374" t="s">
         <v>26</v>
       </c>
       <c r="E374">
-        <v>0.04290311577736886</v>
+        <v>0.02225549050172812</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -6830,16 +6830,16 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C375" t="s">
         <v>24</v>
       </c>
       <c r="D375" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E375">
-        <v>0.04268280475580091</v>
+        <v>0.0195947163780382</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -6847,7 +6847,7 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C376" t="s">
         <v>23</v>
@@ -6856,7 +6856,7 @@
         <v>26</v>
       </c>
       <c r="E376">
-        <v>0.03993061431845629</v>
+        <v>0.006356633412275269</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6864,16 +6864,16 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C377" t="s">
         <v>23</v>
       </c>
       <c r="D377" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E377">
-        <v>0.02631140444448778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6881,16 +6881,16 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C378" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D378" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E378">
-        <v>0.02546149971618545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6898,16 +6898,16 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C379" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D379" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E379">
-        <v>0.01826831074612399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6915,10 +6915,10 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C380" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D380" t="s">
         <v>27</v>
@@ -6932,10 +6932,10 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C381" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D381" t="s">
         <v>27</v>
@@ -6949,10 +6949,10 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C382" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D382" t="s">
         <v>27</v>
@@ -6966,10 +6966,10 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C383" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D383" t="s">
         <v>27</v>
@@ -6983,10 +6983,10 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C384" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D384" t="s">
         <v>27</v>
@@ -7000,10 +7000,10 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C385" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D385" t="s">
         <v>27</v>
@@ -7017,10 +7017,10 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C386" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D386" t="s">
         <v>27</v>
@@ -7034,10 +7034,10 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C387" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D387" t="s">
         <v>27</v>
@@ -7051,7 +7051,7 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C388" t="s">
         <v>23</v>
@@ -7068,10 +7068,10 @@
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C389" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D389" t="s">
         <v>27</v>
@@ -7085,10 +7085,10 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C390" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D390" t="s">
         <v>27</v>
@@ -7102,10 +7102,10 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C391" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D391" t="s">
         <v>27</v>
@@ -7119,10 +7119,10 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C392" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D392" t="s">
         <v>27</v>
@@ -7136,10 +7136,10 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C393" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D393" t="s">
         <v>27</v>
@@ -7153,10 +7153,10 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C394" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D394" t="s">
         <v>27</v>
@@ -7170,10 +7170,10 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C395" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D395" t="s">
         <v>27</v>
@@ -7187,10 +7187,10 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C396" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D396" t="s">
         <v>27</v>
@@ -7204,7 +7204,7 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C397" t="s">
         <v>23</v>
@@ -7221,10 +7221,10 @@
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C398" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D398" t="s">
         <v>27</v>
@@ -7238,10 +7238,10 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C399" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D399" t="s">
         <v>27</v>
@@ -7255,10 +7255,10 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C400" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D400" t="s">
         <v>27</v>
@@ -7272,10 +7272,10 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C401" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D401" t="s">
         <v>27</v>
@@ -7292,7 +7292,7 @@
         <v>16</v>
       </c>
       <c r="C402" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D402" t="s">
         <v>27</v>
@@ -7306,10 +7306,10 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C403" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D403" t="s">
         <v>27</v>
@@ -7323,10 +7323,10 @@
         <v>403</v>
       </c>
       <c r="B404" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C404" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D404" t="s">
         <v>27</v>
@@ -7343,7 +7343,7 @@
         <v>9</v>
       </c>
       <c r="C405" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D405" t="s">
         <v>27</v>
@@ -7357,10 +7357,10 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C406" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D406" t="s">
         <v>27</v>
@@ -7374,10 +7374,10 @@
         <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C407" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D407" t="s">
         <v>27</v>
@@ -7391,7 +7391,7 @@
         <v>407</v>
       </c>
       <c r="B408" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C408" t="s">
         <v>21</v>
@@ -7408,10 +7408,10 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C409" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D409" t="s">
         <v>27</v>
@@ -7425,10 +7425,10 @@
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C410" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D410" t="s">
         <v>27</v>
@@ -7476,10 +7476,10 @@
         <v>412</v>
       </c>
       <c r="B413" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C413" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D413" t="s">
         <v>27</v>
@@ -7493,10 +7493,10 @@
         <v>413</v>
       </c>
       <c r="B414" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C414" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D414" t="s">
         <v>27</v>
@@ -7510,10 +7510,10 @@
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C415" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D415" t="s">
         <v>27</v>
@@ -7527,10 +7527,10 @@
         <v>415</v>
       </c>
       <c r="B416" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C416" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D416" t="s">
         <v>27</v>
@@ -7544,7 +7544,7 @@
         <v>416</v>
       </c>
       <c r="B417" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C417" t="s">
         <v>25</v>
